--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
@@ -82,25 +82,25 @@
     <t>love</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>better</t>
   </si>
   <si>
     <t>help</t>
@@ -985,25 +985,25 @@
         <v>22</v>
       </c>
       <c r="K10">
-        <v>0.7025862068965517</v>
+        <v>0.6950354609929078</v>
       </c>
       <c r="L10">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="M10">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="N10">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O10">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,25 +1011,25 @@
         <v>23</v>
       </c>
       <c r="K11">
-        <v>0.6950354609929078</v>
+        <v>0.693069306930693</v>
       </c>
       <c r="L11">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="M11">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="N11">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="O11">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1037,25 +1037,25 @@
         <v>24</v>
       </c>
       <c r="K12">
-        <v>0.693069306930693</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L12">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="M12">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="N12">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O12">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1063,25 +1063,25 @@
         <v>25</v>
       </c>
       <c r="K13">
-        <v>0.6888888888888889</v>
+        <v>0.6820083682008368</v>
       </c>
       <c r="L13">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="M13">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1115,25 +1115,25 @@
         <v>27</v>
       </c>
       <c r="K15">
-        <v>0.6036585365853658</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L15">
-        <v>198</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>210</v>
+        <v>37</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>130</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1141,13 +1141,13 @@
         <v>28</v>
       </c>
       <c r="K16">
-        <v>0.5873015873015873</v>
+        <v>0.5823529411764706</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>198</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>198</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="10:17">
